--- a/tables/configTable_weekly.xlsx
+++ b/tables/configTable_weekly.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5123" yWindow="0" windowWidth="21129" windowHeight="9152"/>
+    <workbookView xWindow="6148" yWindow="0" windowWidth="21129" windowHeight="9152"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>line</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,6 +51,22 @@
   </si>
   <si>
     <t>grade_col</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档冷基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板坯钢种</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高档冷基</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板坯钢种</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,10 +397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D2" sqref="D2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" x14ac:dyDescent="0.15"/>
@@ -422,6 +438,34 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2250</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>1580</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
